--- a/www/IndicatorsPerCountry/Benin_GDPperCapita_TerritorialRef_1960_2012_CCode_204.xlsx
+++ b/www/IndicatorsPerCountry/Benin_GDPperCapita_TerritorialRef_1960_2012_CCode_204.xlsx
@@ -234,13 +234,13 @@
     <t>Bolt, Jutta and Jan Luiten van Zanden (2015). GDP per Capita. http://hdl.handle.net/10622/8FCYOX, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_8FCYOX.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_8FCYOX.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Benin_GDPperCapita_TerritorialRef_1960_2012_CCode_204.xlsx
+++ b/www/IndicatorsPerCountry/Benin_GDPperCapita_TerritorialRef_1960_2012_CCode_204.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="82">
   <si>
     <t>Country Code</t>
   </si>
@@ -36,175 +36,193 @@
     <t>GDP per Capita</t>
   </si>
   <si>
-    <t>1084</t>
-  </si>
-  <si>
-    <t>1063</t>
-  </si>
-  <si>
-    <t>1043</t>
-  </si>
-  <si>
-    <t>994</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>982</t>
-  </si>
-  <si>
-    <t>962</t>
-  </si>
-  <si>
-    <t>941</t>
-  </si>
-  <si>
-    <t>956</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>978</t>
-  </si>
-  <si>
-    <t>987</t>
-  </si>
-  <si>
-    <t>932</t>
-  </si>
-  <si>
-    <t>952</t>
-  </si>
-  <si>
-    <t>993</t>
-  </si>
-  <si>
-    <t>1020</t>
-  </si>
-  <si>
-    <t>1032</t>
-  </si>
-  <si>
-    <t>1016</t>
-  </si>
-  <si>
-    <t>1029</t>
-  </si>
-  <si>
-    <t>1033</t>
-  </si>
-  <si>
-    <t>1027</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>1065</t>
-  </si>
-  <si>
-    <t>1061</t>
-  </si>
-  <si>
-    <t>955</t>
-  </si>
-  <si>
-    <t>969</t>
-  </si>
-  <si>
-    <t>983</t>
-  </si>
-  <si>
-    <t>1010</t>
-  </si>
-  <si>
-    <t>1013</t>
-  </si>
-  <si>
-    <t>1128</t>
-  </si>
-  <si>
-    <t>1156</t>
-  </si>
-  <si>
-    <t>1242</t>
-  </si>
-  <si>
-    <t>1152</t>
-  </si>
-  <si>
-    <t>1206</t>
-  </si>
-  <si>
-    <t>1257</t>
-  </si>
-  <si>
-    <t>1246</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>1189</t>
-  </si>
-  <si>
-    <t>1136.34383337</t>
-  </si>
-  <si>
-    <t>1153.08678796</t>
-  </si>
-  <si>
-    <t>1162.09085449</t>
-  </si>
-  <si>
-    <t>1147.73459488</t>
-  </si>
-  <si>
-    <t>1146.31770867</t>
-  </si>
-  <si>
-    <t>1165.3552375</t>
-  </si>
-  <si>
-    <t>1192.82119945</t>
-  </si>
-  <si>
-    <t>1221.76653724</t>
-  </si>
-  <si>
-    <t>1237.4405827</t>
-  </si>
-  <si>
-    <t>1254.4550558</t>
-  </si>
-  <si>
-    <t>1284.61185173</t>
-  </si>
-  <si>
-    <t>1305.45286844</t>
-  </si>
-  <si>
-    <t>1339.65849183</t>
-  </si>
-  <si>
-    <t>1348.14792472</t>
-  </si>
-  <si>
-    <t>1346.91479057</t>
-  </si>
-  <si>
-    <t>1341.26900351</t>
-  </si>
-  <si>
-    <t>1348.15658139</t>
-  </si>
-  <si>
-    <t>1368.29956616</t>
-  </si>
-  <si>
-    <t>1393.83937762</t>
+    <t>1627</t>
+  </si>
+  <si>
+    <t>1597</t>
+  </si>
+  <si>
+    <t>1565</t>
+  </si>
+  <si>
+    <t>1492</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1474</t>
+  </si>
+  <si>
+    <t>1444</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1435</t>
+  </si>
+  <si>
+    <t>1457</t>
+  </si>
+  <si>
+    <t>1468</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>1400</t>
+  </si>
+  <si>
+    <t>1430</t>
+  </si>
+  <si>
+    <t>1532</t>
+  </si>
+  <si>
+    <t>1549</t>
+  </si>
+  <si>
+    <t>1525</t>
+  </si>
+  <si>
+    <t>1545</t>
+  </si>
+  <si>
+    <t>1551</t>
+  </si>
+  <si>
+    <t>1543</t>
+  </si>
+  <si>
+    <t>1535</t>
+  </si>
+  <si>
+    <t>1640</t>
+  </si>
+  <si>
+    <t>1666</t>
+  </si>
+  <si>
+    <t>1733</t>
+  </si>
+  <si>
+    <t>1570</t>
+  </si>
+  <si>
+    <t>1548</t>
+  </si>
+  <si>
+    <t>1519</t>
+  </si>
+  <si>
+    <t>1594</t>
+  </si>
+  <si>
+    <t>1691</t>
+  </si>
+  <si>
+    <t>1862</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1886</t>
+  </si>
+  <si>
+    <t>1867</t>
+  </si>
+  <si>
+    <t>1782</t>
+  </si>
+  <si>
+    <t>1780</t>
+  </si>
+  <si>
+    <t>1715</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812.42146924239</t>
+  </si>
+  <si>
+    <t>1790.53006580995</t>
+  </si>
+  <si>
+    <t>1791.963217413</t>
+  </si>
+  <si>
+    <t>1731.80341707125</t>
+  </si>
+  <si>
+    <t>1835.57459064437</t>
+  </si>
+  <si>
+    <t>1840.48584407706</t>
+  </si>
+  <si>
+    <t>1867.60589331984</t>
+  </si>
+  <si>
+    <t>1862.7557348701</t>
+  </si>
+  <si>
+    <t>1881.69717862755</t>
+  </si>
+  <si>
+    <t>1908.93662092612</t>
+  </si>
+  <si>
+    <t>1928.09663053527</t>
+  </si>
+  <si>
+    <t>1934.39674920161</t>
+  </si>
+  <si>
+    <t>1919.61510267392</t>
+  </si>
+  <si>
+    <t>1923.71929539071</t>
+  </si>
+  <si>
+    <t>1875.91932393658</t>
+  </si>
+  <si>
+    <t>1870.53250067736</t>
+  </si>
+  <si>
+    <t>1904.54958156751</t>
+  </si>
+  <si>
+    <t>1920.30605578009</t>
+  </si>
+  <si>
+    <t>1888.77577922789</t>
+  </si>
+  <si>
+    <t>1854.66557072809</t>
+  </si>
+  <si>
+    <t>1836</t>
+  </si>
+  <si>
+    <t>1939</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2055</t>
+  </si>
+  <si>
+    <t>2080</t>
   </si>
   <si>
     <t>Description</t>
@@ -560,7 +578,7 @@
         <v>1964.0</v>
       </c>
       <c r="E16" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +595,7 @@
         <v>1965.0</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18">
@@ -594,7 +612,7 @@
         <v>1966.0</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19">
@@ -611,7 +629,7 @@
         <v>1967.0</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20">
@@ -628,7 +646,7 @@
         <v>1968.0</v>
       </c>
       <c r="E20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
@@ -645,7 +663,7 @@
         <v>1969.0</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -662,7 +680,7 @@
         <v>1970.0</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
@@ -679,7 +697,7 @@
         <v>1971.0</v>
       </c>
       <c r="E23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24">
@@ -696,7 +714,7 @@
         <v>1972.0</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
@@ -713,7 +731,7 @@
         <v>1973.0</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -730,7 +748,7 @@
         <v>1974.0</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
@@ -747,7 +765,7 @@
         <v>1975.0</v>
       </c>
       <c r="E27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
@@ -764,7 +782,7 @@
         <v>1976.0</v>
       </c>
       <c r="E28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29">
@@ -781,7 +799,7 @@
         <v>1977.0</v>
       </c>
       <c r="E29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30">
@@ -798,7 +816,7 @@
         <v>1978.0</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31">
@@ -815,7 +833,7 @@
         <v>1979.0</v>
       </c>
       <c r="E31" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32">
@@ -832,7 +850,7 @@
         <v>1980.0</v>
       </c>
       <c r="E32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33">
@@ -849,7 +867,7 @@
         <v>1981.0</v>
       </c>
       <c r="E33" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34">
@@ -866,7 +884,7 @@
         <v>1982.0</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35">
@@ -883,7 +901,7 @@
         <v>1983.0</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -900,7 +918,7 @@
         <v>1984.0</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37">
@@ -917,7 +935,7 @@
         <v>1985.0</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38">
@@ -934,7 +952,7 @@
         <v>1986.0</v>
       </c>
       <c r="E38" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39">
@@ -951,7 +969,7 @@
         <v>1987.0</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -968,7 +986,7 @@
         <v>1988.0</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41">
@@ -985,7 +1003,7 @@
         <v>1989.0</v>
       </c>
       <c r="E41" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42">
@@ -1002,7 +1020,7 @@
         <v>1990.0</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="43">
@@ -1019,7 +1037,7 @@
         <v>1991.0</v>
       </c>
       <c r="E43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="44">
@@ -1036,7 +1054,7 @@
         <v>1992.0</v>
       </c>
       <c r="E44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1053,7 +1071,7 @@
         <v>1993.0</v>
       </c>
       <c r="E45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46">
@@ -1070,7 +1088,7 @@
         <v>1994.0</v>
       </c>
       <c r="E46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47">
@@ -1087,7 +1105,7 @@
         <v>1995.0</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="48">
@@ -1104,7 +1122,7 @@
         <v>1996.0</v>
       </c>
       <c r="E48" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="49">
@@ -1121,7 +1139,7 @@
         <v>1997.0</v>
       </c>
       <c r="E49" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50">
@@ -1138,7 +1156,7 @@
         <v>1998.0</v>
       </c>
       <c r="E50" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="51">
@@ -1155,7 +1173,7 @@
         <v>1999.0</v>
       </c>
       <c r="E51" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="52">
@@ -1172,7 +1190,7 @@
         <v>2000.0</v>
       </c>
       <c r="E52" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="53">
@@ -1189,7 +1207,7 @@
         <v>2001.0</v>
       </c>
       <c r="E53" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54">
@@ -1206,7 +1224,7 @@
         <v>2002.0</v>
       </c>
       <c r="E54" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55">
@@ -1223,7 +1241,7 @@
         <v>2003.0</v>
       </c>
       <c r="E55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56">
@@ -1240,7 +1258,7 @@
         <v>2004.0</v>
       </c>
       <c r="E56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="57">
@@ -1257,7 +1275,7 @@
         <v>2005.0</v>
       </c>
       <c r="E57" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -1274,7 +1292,7 @@
         <v>2006.0</v>
       </c>
       <c r="E58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59">
@@ -1291,7 +1309,7 @@
         <v>2007.0</v>
       </c>
       <c r="E59" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60">
@@ -1308,7 +1326,143 @@
         <v>2008.0</v>
       </c>
       <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="n">
+        <v>2009.0</v>
+      </c>
+      <c r="E61" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="n">
+        <v>2010.0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="n">
+        <v>2011.0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="n">
+        <v>2012.0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>5</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>2013.0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>2014.0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>2015.0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>204.0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="n">
+        <v>2016.0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1326,50 +1480,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
